--- a/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-makanmesra.xlsx
+++ b/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-makanmesra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>locator_town</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -447,10 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>BUKIT BANDAR RAYA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Lot Pt 313, Hs (D) 310, Persimpangan Jalan Maarof 5, 58000 Bangsar, Kuala Lumpur</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -462,10 +476,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>COCHRANE PERKASA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Lot 1246, Jalan Cochrane, Mukim Ampang, 55100 , Kuala Lumpur</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -477,10 +496,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>SRI HARTAMAS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Lot 48653, Jalan 1/70A, Taman Sri Hartamas, 50480 Sri Hartamas, Kuala Lumpur</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -492,10 +516,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>KM 2.95 PENCHALA LINK (ARAH DAMANSARA)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Km 2.95, Penchala Link (West Bound) Plaza Tol Penchala, 60000 , Kuala Lumpur</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -507,10 +536,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>MRR2 AMPANG</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Lot Pt 21, Hs(D) 4976, Mukim Ampang, 43100 Ulu Langat, Selangor</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -522,10 +556,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>TAMAN TUN DR. ISMAIL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Lot 29395 &amp; 29396, Persiaran Zaaba, 60000 Taman Tun Dr Ismail, Kuala Lumpur</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -537,10 +576,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>TAMAN CEMPAKA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Lot 1859, Taman Chempaka, 68000 Ampang, Selangor</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -552,10 +596,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>KM 5.75 PENCHALA LINK (ARAH KL)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Km 5.75, Lebuhraya Penchala Link, 60000 , Kuala Lumpur</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -567,10 +616,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>MUTIARA DAMANSARA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Lot Pt 40036 Hs(D) 144347 Mukim Sungai Buloh, (Mutiara Damansara ), 47800 Daerah Petaling, Selangor</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -582,10 +636,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>JAMBU JERTEH</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Lot No. 2, Jalan Jambu Jerteh Off Jalan Kepong, 52000 Kepong, Kuala Lumpur</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -597,10 +656,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>SETIA ALAM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>No 1, Jalan Setia Murni U13/50, Setia Alam, Seksyen U13, 40170 Shah Alam, Selangor, 47800 Petaling Jaya, Selangor</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -612,10 +676,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>JALAN KOLAM AYER LAMA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Lot 36904, Jalan Kolam Air Lama, 68000 Ampang, Selangor</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -627,10 +696,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>BANDAR KINRARA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Lot 37331 Jalan Kinrara 5, Seksyen 5 Bandar Kinrara, 47100 Puchong, Selangor</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -642,10 +716,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>WANGSA MELAWATI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Lot 20271 &amp; 20272, Wangsa Melawati, Jalan Hulu Kelang, 53300 , Kuala Lumpur</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -657,10 +736,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>MRR2 ARAH KEPONG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Lot Pt 25747, Mukim Batu, 52100 , Kuala Lumpur</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -672,10 +756,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>LOT 279 HULU KLANG</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Lot 279, Bt 7 1/2, Jalan Hulu Kelang, 68000 Ampang, Kuala Lumpur</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -687,10 +776,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>TAMAN MELATI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Lot Pt 9094, Taman Melati, 53000 Setapak, Kuala Lumpur</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -702,10 +796,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>TAMAN SAMUDRA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Lot 29071-29072, Taman Samudra, 68100 Batu Caves, Selangor</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -717,10 +816,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>LEBUHRAYA PASIR GUDANG 1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Ptd 110919 &amp; 110910, Lebuhraya Pasir Gudang, Bandar Baru Kota Puteri, Masai, 81750 Johor Bahru, Johor</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
@@ -732,10 +836,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>PASIR GUDANG HIGHWAY 3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Lot Ptd 105660 Hs(M) 3316, L/Raya P/Gudang (P/Gudang Bound) Mkm Tebrau, 81100 Johor Bharu, Johor</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
@@ -747,10 +856,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>TAMAN TAMPOI UTAMA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Lot 60266, Taman Tampoi Utama, 81200 Johor Bahru, Johor</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
@@ -762,10 +876,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>MUTIARA RINI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Lot Ptd 81817, Mutiara Rini, 81300 Skudai, Johor</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Pasir Gudang, Johor</t>
         </is>
@@ -777,10 +896,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>RASAH</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Lot PT 25435, HS(D) 218453, Batu 3, Mambau, Mukim Rasah, Negeri Sembilan, 70300 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
@@ -792,10 +916,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>TMN PELANGI SEMENYIH</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Lot 26796 Pelangi Semenyih, Mukim Semenyih, 43500 Hulu Langat, Selangor</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
@@ -807,10 +936,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>KLIA 2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Jalan Terminal, Klia, 43900 Sepang, Selangor</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
@@ -822,10 +956,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>KLIA 1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Lot Pt 3906, Jalan Terminal, Klia, 64000 Sepang, Selangor</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
@@ -837,10 +976,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>SEC 15 BDR BARU BANGI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Seksyen 15 Bandar Baru Bangi, 43000 Kajang, Selangor</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
@@ -852,10 +996,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>PUTRAJAYA PRECINT 16</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Lot Pt 2495, Jalan P16, Precint 16, 62150 , Putrajaya</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
@@ -867,10 +1016,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>SILK HIGHWAY 2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>PETRONAS Silk Highway, Lot 44116, KM 26.8, Lebuhraya Silk (Arah Kajang), 43300 Seri Kembangan, Selangor, 43300 Seri Kembangan, Selangor</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
@@ -882,10 +1036,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>CYBERJAYA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Lot Pt 12099 Hs (D) 7085, Site 1A, Cyberjaya, 63000 Dengkil, Selangor</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
@@ -897,10 +1056,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>PUTRAJAYA PRECINT 9D</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Lot Pt 836, Precint 9, 62250 , Putrajaya</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
@@ -912,10 +1076,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>TMN PUTERA BUDIMAN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Lot Pt 41658, Hs(D) 53482, Taman Putera Budiman, 43000 Kajang, Selangor</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
@@ -927,10 +1096,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>PUCHONG GATEWAY</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Lot Pt 48733, Mukim Petaling (Ldp Puchong Gateway), 47100 Petaling, Selangor</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>

--- a/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-makanmesra.xlsx
+++ b/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-makanmesra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,679 +434,1192 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_name</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>outlet_name</t>
+          <t>outlet_address</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>outlet_address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>locator_town</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BUKIT BANDAR RAYA</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BUKIT BANDAR RAYA</t>
+          <t>Lot Pt 313, Hs (D) 310, Persimpangan Jalan Maarof 5, 58000 Bangsar, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lot Pt 313, Hs (D) 310, Persimpangan Jalan Maarof 5, 58000 Bangsar, Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>COCHRANE PERKASA</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COCHRANE PERKASA</t>
+          <t>Lot 1246, Jalan Cochrane, Mukim Ampang, 55100 , Kuala Lumpur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lot 1246, Jalan Cochrane, Mukim Ampang, 55100 , Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SRI HARTAMAS</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SRI HARTAMAS</t>
+          <t>Lot 48653, Jalan 1/70A, Taman Sri Hartamas, 50480 Sri Hartamas, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lot 48653, Jalan 1/70A, Taman Sri Hartamas, 50480 Sri Hartamas, Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KM 2.95 PENCHALA LINK (ARAH DAMANSARA)</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KM 2.95 PENCHALA LINK (ARAH DAMANSARA)</t>
+          <t>Km 2.95, Penchala Link (West Bound) Plaza Tol Penchala, 60000 , Kuala Lumpur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Km 2.95, Penchala Link (West Bound) Plaza Tol Penchala, 60000 , Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MRR2 AMPANG</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MRR2 AMPANG</t>
+          <t>Lot Pt 21, Hs(D) 4976, Mukim Ampang, 43100 Ulu Langat, Selangor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lot Pt 21, Hs(D) 4976, Mukim Ampang, 43100 Ulu Langat, Selangor</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TAMAN TUN DR. ISMAIL</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TAMAN TUN DR. ISMAIL</t>
+          <t>Lot 29395 &amp; 29396, Persiaran Zaaba, 60000 Taman Tun Dr Ismail, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lot 29395 &amp; 29396, Persiaran Zaaba, 60000 Taman Tun Dr Ismail, Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TAMAN CEMPAKA</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TAMAN CEMPAKA</t>
+          <t>Lot 1859, Taman Chempaka, 68000 Ampang, Selangor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lot 1859, Taman Chempaka, 68000 Ampang, Selangor</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KM 5.75 PENCHALA LINK (ARAH KL)</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KM 5.75 PENCHALA LINK (ARAH KL)</t>
+          <t>Km 5.75, Lebuhraya Penchala Link, 60000 , Kuala Lumpur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Km 5.75, Lebuhraya Penchala Link, 60000 , Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MUTIARA DAMANSARA</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MUTIARA DAMANSARA</t>
+          <t>Lot Pt 40036 Hs(D) 144347 Mukim Sungai Buloh, (Mutiara Damansara ), 47800 Daerah Petaling, Selangor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lot Pt 40036 Hs(D) 144347 Mukim Sungai Buloh, (Mutiara Damansara ), 47800 Daerah Petaling, Selangor</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>JAMBU JERTEH</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JAMBU JERTEH</t>
+          <t>Lot No. 2, Jalan Jambu Jerteh Off Jalan Kepong, 52000 Kepong, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lot No. 2, Jalan Jambu Jerteh Off Jalan Kepong, 52000 Kepong, Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SETIA ALAM</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SETIA ALAM</t>
+          <t>No 1, Jalan Setia Murni U13/50, Setia Alam, Seksyen U13, 40170 Shah Alam, Selangor, 47800 Petaling Jaya, Selangor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No 1, Jalan Setia Murni U13/50, Setia Alam, Seksyen U13, 40170 Shah Alam, Selangor, 47800 Petaling Jaya, Selangor</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>JALAN KOLAM AYER LAMA</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>JALAN KOLAM AYER LAMA</t>
+          <t>Lot 36904, Jalan Kolam Air Lama, 68000 Ampang, Selangor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lot 36904, Jalan Kolam Air Lama, 68000 Ampang, Selangor</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BANDAR KINRARA</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BANDAR KINRARA</t>
+          <t>Lot 37331 Jalan Kinrara 5, Seksyen 5 Bandar Kinrara, 47100 Puchong, Selangor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lot 37331 Jalan Kinrara 5, Seksyen 5 Bandar Kinrara, 47100 Puchong, Selangor</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WANGSA MELAWATI</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WANGSA MELAWATI</t>
+          <t>Lot 20271 &amp; 20272, Wangsa Melawati, Jalan Hulu Kelang, 53300 , Kuala Lumpur</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lot 20271 &amp; 20272, Wangsa Melawati, Jalan Hulu Kelang, 53300 , Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MRR2 ARAH KEPONG</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MRR2 ARAH KEPONG</t>
+          <t>Lot Pt 25747, Mukim Batu, 52100 , Kuala Lumpur</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lot Pt 25747, Mukim Batu, 52100 , Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LOT 279 HULU KLANG</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LOT 279 HULU KLANG</t>
+          <t>Lot 279, Bt 7 1/2, Jalan Hulu Kelang, 68000 Ampang, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lot 279, Bt 7 1/2, Jalan Hulu Kelang, 68000 Ampang, Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TAMAN MELATI</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TAMAN MELATI</t>
+          <t>Lot Pt 9094, Taman Melati, 53000 Setapak, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lot Pt 9094, Taman Melati, 53000 Setapak, Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TAMAN SAMUDRA</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAMAN SAMUDRA</t>
+          <t>Lot 29071-29072, Taman Samudra, 68100 Batu Caves, Selangor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lot 29071-29072, Taman Samudra, 68100 Batu Caves, Selangor</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PUTRAJAYA PRECINT 16</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Lot Pt 2495, Jalan P16, Precint 16, 62150 , Putrajaya</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PUTRAJAYA PRECINT 9D</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lot Pt 836, Precint 9, 62250 , Putrajaya</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CYBERJAYA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lot Pt 12099 Hs (D) 7085, Site 1A, Cyberjaya, 63000 Dengkil, Selangor</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SILK HIGHWAY 2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PETRONAS Silk Highway, Lot 44116, KM 26.8, Lebuhraya Silk (Arah Kajang), 43300 Seri Kembangan, Selangor, 43300 Seri Kembangan, Selangor</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PUCHONG GATEWAY</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lot Pt 48733, Mukim Petaling (Ldp Puchong Gateway), 47100 Petaling, Selangor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SEC 15 BDR BARU BANGI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Seksyen 15 Bandar Baru Bangi, 43000 Kajang, Selangor</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TMN PUTERA BUDIMAN</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Lot Pt 41658, Hs(D) 53482, Taman Putera Budiman, 43000 Kajang, Selangor</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LEBUH PUTERI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Lot 5471 &amp; 5473, Lebuh Puteri, Bandar Puteri Puchong, 47100 Mukim Petaling, Selangor</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PUCHONG PRIMA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lot Pt 1161, Hs (D) 135350 Puchong Perdana, 47100 Daerah Petaling, Selangor</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TAMAN RAKAN</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pt 47809 Hs(D) 125476 Bandar (Jalan) Sunagi Long (Taman Rakan), Mukim Cheras, 43100 Hulu Langat, Selangor</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TMN PELANGI SEMENYIH</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Lot 26796 Pelangi Semenyih, Mukim Semenyih, 43500 Hulu Langat, Selangor</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KLIA 2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jalan Terminal, Klia, 43900 Sepang, Selangor</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>KLIA 1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lot Pt 3906, Jalan Terminal, Klia, 64000 Sepang, Selangor</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>KOTA KEMUNING</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lot 68501 Jalan Persiaran Anggerik Mokara Kota Kemuning, 40460 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>KESAS ARAH TIMUR KM 34.5</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Km 34.5 Lebuhraya Shah Alam (Kesas) Selangor, 40000 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AXIS SHAH ALAM</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>No. 2, Jalan Sepadu 25/123, Taman Perindustrian Axis, Seksyen 25, 40400 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PEKAN BARU HICOM</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Lot Pt 95, Hs (D) 241061 (Lot Lama Pt 14369) Persiaran Jubli Perak, Seksyen 22, 40300 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SEK 15 SHAH ALAM</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lot Pt 812 Hs(D) 240429, Seksyen 15, Persiaran Selangor, 40200 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Klang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PEKAN BARU SUBANG</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pt 684, Hs(D) 256544, Jalan Sungai Buloh, Batu 3, Pekan Baru Subang, Seksyen U3, 40150 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Klang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SEC. 6 SHAH ALAM</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Lot 435, Jalan Nuri 6/61, Seksyen 6, 40000 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Klang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FAS FEDERAL HIGHWAY 1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Km 8.6 - Km 8.7, Seksyen 1, Lebuh Raya Persekutuan, 40000 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Shah Alam, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>KG BHARU SUBANG</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Lot 4029 Jalan 1 D, Kg Baharu Subang, Sek U 6, 40150 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Shah Alam, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>KOTA DAMANSARA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Seksyen 2, Persiaran Surian, Kota Damansara, Mukim Sungai Buloh, 47810 Petaling, Selangor</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ampang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SUBANG BESTARI</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Lot 34419 Hs(M) 10268 &amp; 34420, Hs(M) 10269 Subang Bestari, 40150 Sungai Buloh, Selangor</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ampang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BUKIT ANTARABANGSA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Lot Pt 3429, Jalan Wangsa 2, Bukit Antarabangsa, 68000 Ampang, Selangor</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ampang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B B SELAYANG FASA 2A</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Lot 60349, Bandar Baru Selayang, Fasa 2A, Jalan Sungai Tua Batu, 68100 Batu Caves, Selangor</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Selayang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SG BULOH LAYBY</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Km 453, Sungai Buloh Layby (Kl Bound), Plus Nse, 47000 Sungai Buloh, Selangor</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Selayang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TMN SETIAWANGSA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Lot 16794, Jalan Bukit Setiawangsa, Tmn Setiawangsa, 50420 Ampang, Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Selayang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RAWANG RSA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kawasan Rehat &amp; Rawat Rawang, Lebuhraya Utara - Selatan(Arah Utara), 48000 Rawang, Selangor</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Selayang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>KLS, ARAH KUALA LUMPUR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Kundang Rsa (Arah Timur), Lebuhraya Kl-Kuala Selangor (Latar), 48000 Rawang, Selangor</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rawang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SG BULOH COUNTRY RESORT</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Lot 1661 Hs(D) 3142, Mukim Ijok Sungai Buloh Country Resort, 47000 Sungai Buloh, Selangor</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Rawang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BUKIT SUBANG</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Lot Pt 4588 Hs(D) 163079, Bukit Subang, Mukim Damansara, Daerah Petaling, 40150 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Rawang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ELITE HIGHWAY</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Ch 22600,Kawasan Rehat &amp; Rawat Dengkil,L/Raya Utara-Selatan, Hubungan Tengah, 43800 Dengkil, Selangor</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Rawang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SUNGAI HAJI DORANI</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Lot 9188 &amp; 9189 Gm 80, Kampong Sg. Haji Dorani, Sungai Besar, Daerah Sabak Bernam, Mukim Panchang Bedena, 45300 , Selangor</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sungai Besar, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RASAH</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lot PT 25435, HS(D) 218453, Batu 3, Mambau, Mukim Rasah, Negeri Sembilan, 70300 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Bandar Baru Salak Tinggi, Sepang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PASIR GUDANG HIGHWAY 3</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lot Ptd 105660 Hs(M) 3316, L/Raya P/Gudang (P/Gudang Bound) Mkm Tebrau, 81100 Johor Bharu, Johor</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TAMAN TAMPOI UTAMA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Lot 60266, Taman Tampoi Utama, 81200 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>LEBUHRAYA PASIR GUDANG 1</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Ptd 110919 &amp; 110910, Lebuhraya Pasir Gudang, Bandar Baru Kota Puteri, Masai, 81750 Johor Bahru, Johor</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Pasir Gudang, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PASIR GUDANG HIGHWAY 3</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Lot Ptd 105660 Hs(M) 3316, L/Raya P/Gudang (P/Gudang Bound) Mkm Tebrau, 81100 Johor Bharu, Johor</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Pasir Gudang, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TAMAN TAMPOI UTAMA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Lot 60266, Taman Tampoi Utama, 81200 Johor Bahru, Johor</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Pasir Gudang, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>MUTIARA RINI</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Lot Ptd 81817, Mutiara Rini, 81300 Skudai, Johor</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Pasir Gudang, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>RASAH</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Lot PT 25435, HS(D) 218453, Batu 3, Mambau, Mukim Rasah, Negeri Sembilan, 70300 Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TMN PELANGI SEMENYIH</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Lot 26796 Pelangi Semenyih, Mukim Semenyih, 43500 Hulu Langat, Selangor</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>KLIA 2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Jalan Terminal, Klia, 43900 Sepang, Selangor</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>KLIA 1</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Lot Pt 3906, Jalan Terminal, Klia, 64000 Sepang, Selangor</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SEC 15 BDR BARU BANGI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Seksyen 15 Bandar Baru Bangi, 43000 Kajang, Selangor</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>PUTRAJAYA PRECINT 16</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Lot Pt 2495, Jalan P16, Precint 16, 62150 , Putrajaya</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>SILK HIGHWAY 2</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>PETRONAS Silk Highway, Lot 44116, KM 26.8, Lebuhraya Silk (Arah Kajang), 43300 Seri Kembangan, Selangor, 43300 Seri Kembangan, Selangor</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CYBERJAYA</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Lot Pt 12099 Hs (D) 7085, Site 1A, Cyberjaya, 63000 Dengkil, Selangor</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>PUTRAJAYA PRECINT 9D</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Lot Pt 836, Precint 9, 62250 , Putrajaya</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TMN PUTERA BUDIMAN</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Lot Pt 41658, Hs(D) 53482, Taman Putera Budiman, 43000 Kajang, Selangor</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>PUCHONG GATEWAY</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Lot Pt 48733, Mukim Petaling (Ldp Puchong Gateway), 47100 Petaling, Selangor</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MACHAP ARAH UTARA</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Kawasan Rehat &amp; Rawat Plus(Arah Utara) ,Machap, 86200 Kluang, Johor</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Kluang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TAMAN YAYASAN, SEGAMAT</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Lot Ptd 8255 Taman Yayasan, 85000 Segamat, Johor</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Batu Pahat, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>KM 4 JALAN SALLEH</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Lot 1311 Gm 3713, Mukim Bandar Muar, Jalan Salleh, 84000 Muar, Johor</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Muar, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TANGKAK</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Lot 1205, Km 25, Jalan Muar, 84900 Tangkak, Johor</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Muar, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BUKIT KATIL</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Lot 4985, Jln Tun Hamzah, Mukim Bukit Katil, 75400 Melaka Tengah, Melaka</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Muar, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BATU ANAM</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Lot Ptb 813 Hs (D) 46082, Bandar Batu Anam, 85000 Segamat, Johor</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Segamat, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TAMAN RAMBAI UTAMA</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Lot Pt 4033 Hs(M) 1201, Mkm Tanjung Minyak, Tmn Rambai Utama, 75250 Melaka Tengah, Melaka</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Bandaraya Melaka, Melaka Raya, Malacca</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>KUALA LIPIS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Simpang 3, Jalan Pekeliling, 27200 Kuala Lipis, Pahang</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Kuala Lipis, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GEMEREH</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Lot Ptd 1222 &amp; 1223, Mukim Gemereh, Jalan Segamat-Jementah, 85000 Segamat, Johor</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ipoh, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>JALAN MAT SALLEH</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Km 4,Jalan Mat Salleh, Tanjung Aru, 88999 Kota Kinabalu, Sabah</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Kota Kinabalu, Sabah</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>JALAN LINTAS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Lot Nt 4190, Jln Lintas, 88300 Kota Kinabalu, Sabah</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Kota Kinabalu, Sabah</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>KM16 JLN TUARAN</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Lot 551 Cl 015495431, Menggatal North New Township, Jalan Tuaran, 88300 Kota Kinabalu, Sabah</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Kota Kinabalu, Sabah</t>
         </is>
       </c>
     </row>
